--- a/BugReport.xlsx
+++ b/BugReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cd13000277f5daa/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cd13000277f5daa/Desktop/TestCases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{3F64B72D-F5FC-4230-8A6A-AB2FFAE6D0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E80DC4DF-962C-4ACB-95D1-C1D2BE489227}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{3F64B72D-F5FC-4230-8A6A-AB2FFAE6D0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C07DEEC9-A66D-4723-8E39-188EDB43B1E7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B70AA1E-7183-483C-8627-080A190820EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Bug ID</t>
   </si>
@@ -235,21 +235,6 @@
     <t>OPENCART-BUG-9</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open Application URL in any browser
-2. Click on 'My Account' dropmenu
-3. Select 'Login' option
-4. Enter password into the 'Password' field on the 'Login' page
-5. Click on 'Login' button
-6. Inspect the 'Password' text field 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password should not be visible in the Page Source code </t>
-  </si>
-  <si>
-    <t>Password is getting displayed in the Page Source code as shown in the attached screenshot</t>
-  </si>
-  <si>
     <t>OPENCART-BUG-10</t>
   </si>
   <si>
@@ -268,9 +253,6 @@
     <t>User is not getting logged out</t>
   </si>
   <si>
-    <t>OPENCART-BUG-11</t>
-  </si>
-  <si>
     <t>User is not getting logged out in one browser, when logged out in another browser</t>
   </si>
   <si>
@@ -284,33 +266,13 @@
   </si>
   <si>
     <t>User is not getting logged out automatically in Firefox browser</t>
-  </si>
-  <si>
-    <t>OPENCART-BUG-12</t>
-  </si>
-  <si>
-    <t>Email address is not getting carry forwarded from the 'Login' page to 'Forgot Your Password' page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open Application URL
-2. Click on 'My Account' dropmenu
-3. Select 'Login' option
-4. Enter email address into the 'E-Mail Address' text field 
-5. Click on 'Forgotten Password' link
-</t>
-  </si>
-  <si>
-    <t>Email address given in Login page should get carry forwarded to 'Forgot Your Password' page</t>
-  </si>
-  <si>
-    <t>Email address given in Login page is not getting carry forwarded to 'Forgot Your Password' page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +295,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -412,7 +381,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A2409F-92A0-459E-B627-16E01C613C34}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="74" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,7 +741,7 @@
       </c>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="234" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="234" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -797,7 +766,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="288" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="288" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -822,7 +791,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -847,7 +816,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="252" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="252" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -872,7 +841,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="288" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="288" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
@@ -897,7 +866,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="252" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="252" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -922,7 +891,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="252" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="252" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -947,7 +916,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="126" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
@@ -972,46 +941,46 @@
       <c r="H9" s="3"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="216" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="162" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="162" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="162" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>25</v>
@@ -1021,56 +990,6 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="162" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
